--- a/Excel/Buff/BuffConfig.xlsx
+++ b/Excel/Buff/BuffConfig.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="33">
   <si>
     <t>#</t>
   </si>
@@ -31,10 +31,6 @@
   </si>
   <si>
     <t>最大层数</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>MaxLayer</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -76,23 +72,11 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Buff来源Unit个数上限</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>MaxSourceUnit</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Buff持续时间 单位毫秒</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>辅助说明</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Des</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -117,10 +101,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>OnBuffTimeOut</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Buff添加时Action</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -137,22 +117,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>BuffAddAction</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>BuffRemoveAction</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>BuffRefreshAction</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>BuffTickAction</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>BuffTick时Action</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -170,6 +134,58 @@
   </si>
   <si>
     <t>Buff持续时间结束时Action</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffTimeOutActions</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffTickActions</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffRefreshActions</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffRemoveActions</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffAddActions</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaxSourceCount</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buff来源个数上限</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaxLayerCount</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Description</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffTick时间间隔 单位毫秒</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffTickTimeSpan</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -551,10 +567,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:N6"/>
+  <dimension ref="C2:O6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -564,7 +580,7 @@
     <col min="3" max="3" width="12.625" style="2" customWidth="1"/>
     <col min="4" max="4" width="9.5" style="2" customWidth="1"/>
     <col min="5" max="5" width="13.75" style="2" customWidth="1"/>
-    <col min="6" max="6" width="9.625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14" style="2" customWidth="1"/>
     <col min="7" max="7" width="17" style="2" customWidth="1"/>
     <col min="8" max="8" width="18.625" style="2" customWidth="1"/>
     <col min="9" max="9" width="18.375" style="2" customWidth="1"/>
@@ -572,99 +588,106 @@
     <col min="11" max="11" width="17.125" style="2" customWidth="1"/>
     <col min="12" max="12" width="17.75" customWidth="1"/>
     <col min="13" max="13" width="17.125" style="2" customWidth="1"/>
-    <col min="14" max="14" width="25.75" style="2" customWidth="1"/>
-    <col min="15" max="16384" width="9" style="2"/>
+    <col min="14" max="14" width="21.5" style="2" customWidth="1"/>
+    <col min="15" max="15" width="25.75" style="2" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="3:15" x14ac:dyDescent="0.3">
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="3:14" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:15" ht="14.25" x14ac:dyDescent="0.3">
       <c r="C3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>3</v>
       </c>
       <c r="G3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>10</v>
-      </c>
       <c r="J3" s="4" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>28</v>
+        <v>30</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="4" spans="3:14" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="C4" s="3" t="s">
-        <v>1</v>
+    <row r="4" spans="3:15" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="C4" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="4" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L4" s="4" t="s">
         <v>22</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>15</v>
+        <v>31</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="5" spans="3:14" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:15" ht="14.25" x14ac:dyDescent="0.3">
       <c r="C5" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>2</v>
@@ -676,22 +699,25 @@
         <v>2</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>26</v>
+        <v>32</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="6" spans="3:14" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="6" spans="3:15" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C6" s="1">
         <v>1</v>
       </c>
@@ -710,9 +736,6 @@
       <c r="I6" s="1">
         <v>1</v>
       </c>
-      <c r="J6" s="1">
-        <v>1</v>
-      </c>
       <c r="K6" s="1">
         <v>1</v>
       </c>
@@ -723,6 +746,9 @@
         <v>1</v>
       </c>
       <c r="N6" s="1">
+        <v>1000</v>
+      </c>
+      <c r="O6" s="1">
         <v>1</v>
       </c>
     </row>

--- a/Excel/Buff/BuffConfig.xlsx
+++ b/Excel/Buff/BuffConfig.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="37">
   <si>
     <t>#</t>
   </si>
@@ -186,6 +186,22 @@
   </si>
   <si>
     <t>int</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buff状态</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>State</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -255,7 +271,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -263,6 +279,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -567,10 +586,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:O6"/>
+  <dimension ref="C2:P6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -579,26 +598,27 @@
     <col min="2" max="2" width="12.75" style="2" customWidth="1"/>
     <col min="3" max="3" width="12.625" style="2" customWidth="1"/>
     <col min="4" max="4" width="9.5" style="2" customWidth="1"/>
-    <col min="5" max="5" width="13.75" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14" style="2" customWidth="1"/>
-    <col min="7" max="7" width="17" style="2" customWidth="1"/>
-    <col min="8" max="8" width="18.625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="18.375" style="2" customWidth="1"/>
-    <col min="10" max="10" width="16" style="2" customWidth="1"/>
-    <col min="11" max="11" width="17.125" style="2" customWidth="1"/>
-    <col min="12" max="12" width="17.75" customWidth="1"/>
-    <col min="13" max="13" width="17.125" style="2" customWidth="1"/>
-    <col min="14" max="14" width="21.5" style="2" customWidth="1"/>
-    <col min="15" max="15" width="25.75" style="2" customWidth="1"/>
-    <col min="16" max="16384" width="9" style="2"/>
+    <col min="5" max="6" width="13.75" style="2" customWidth="1"/>
+    <col min="7" max="7" width="14" style="2" customWidth="1"/>
+    <col min="8" max="8" width="17" style="2" customWidth="1"/>
+    <col min="9" max="9" width="18.625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="18.375" style="2" customWidth="1"/>
+    <col min="11" max="11" width="16" style="2" customWidth="1"/>
+    <col min="12" max="12" width="17.125" style="2" customWidth="1"/>
+    <col min="13" max="13" width="17.75" customWidth="1"/>
+    <col min="14" max="14" width="17.125" style="2" customWidth="1"/>
+    <col min="15" max="15" width="21.5" style="2" customWidth="1"/>
+    <col min="16" max="16" width="21.25" style="2" customWidth="1"/>
+    <col min="17" max="17" width="17.375" style="2" customWidth="1"/>
+    <col min="18" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="3:16" x14ac:dyDescent="0.3">
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="3:15" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:16" ht="14.25" x14ac:dyDescent="0.3">
       <c r="C3" s="3" t="s">
         <v>1</v>
       </c>
@@ -609,37 +629,40 @@
         <v>10</v>
       </c>
       <c r="F3" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="H3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="I3" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="J3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="K3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="L3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="M3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="N3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="N3" s="4" t="s">
+      <c r="O3" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="O3" s="4" t="s">
+      <c r="P3" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="3:15" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:16" ht="14.25" x14ac:dyDescent="0.3">
       <c r="C4" s="4" t="s">
         <v>29</v>
       </c>
@@ -648,37 +671,40 @@
         <v>28</v>
       </c>
       <c r="F4" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="H4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="I4" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="J4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="K4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="L4" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="L4" s="4" t="s">
+      <c r="M4" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="M4" s="4" t="s">
+      <c r="N4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="N4" s="4" t="s">
+      <c r="O4" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="O4" s="4" t="s">
+      <c r="P4" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="3:15" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:16" ht="14.25" x14ac:dyDescent="0.3">
       <c r="C5" s="3" t="s">
         <v>2</v>
       </c>
@@ -687,37 +713,40 @@
         <v>9</v>
       </c>
       <c r="F5" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>2</v>
+      <c r="H5" s="5" t="s">
+        <v>36</v>
       </c>
       <c r="I5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="J5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="K5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="L5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="L5" s="4" t="s">
+      <c r="M5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="M5" s="4" t="s">
+      <c r="N5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="N5" s="4" t="s">
+      <c r="O5" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="O5" s="4" t="s">
+      <c r="P5" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="3:15" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="6" spans="3:16" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C6" s="1">
         <v>1</v>
       </c>
@@ -736,6 +765,9 @@
       <c r="I6" s="1">
         <v>1</v>
       </c>
+      <c r="J6" s="1">
+        <v>1</v>
+      </c>
       <c r="K6" s="1">
         <v>1</v>
       </c>
@@ -746,9 +778,12 @@
         <v>1</v>
       </c>
       <c r="N6" s="1">
+        <v>1</v>
+      </c>
+      <c r="O6" s="1">
         <v>1000</v>
       </c>
-      <c r="O6" s="1">
+      <c r="P6" s="1">
         <v>1</v>
       </c>
     </row>

--- a/Excel/Buff/BuffConfig.xlsx
+++ b/Excel/Buff/BuffConfig.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
   <si>
     <t>#</t>
   </si>
@@ -202,6 +202,10 @@
   </si>
   <si>
     <t>bool</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试Buff</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -588,8 +592,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:P6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -750,6 +754,9 @@
       <c r="C6" s="1">
         <v>1</v>
       </c>
+      <c r="D6" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="E6" s="1">
         <v>1</v>
       </c>
@@ -766,25 +773,19 @@
         <v>1</v>
       </c>
       <c r="J6" s="1">
-        <v>1</v>
+        <v>5000</v>
       </c>
       <c r="K6" s="1">
         <v>1</v>
       </c>
-      <c r="L6" s="1">
-        <v>1</v>
-      </c>
-      <c r="M6" s="1">
-        <v>1</v>
-      </c>
       <c r="N6" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O6" s="1">
         <v>1000</v>
       </c>
       <c r="P6" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Buff/BuffConfig.xlsx
+++ b/Excel/Buff/BuffConfig.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="15975"/>
   </bookViews>
   <sheets>
-    <sheet name="UnitProto" sheetId="1" r:id="rId1"/>
+    <sheet name="Buff" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -225,6 +225,7 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -232,11 +233,13 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -593,7 +596,7 @@
   <dimension ref="C2:P6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>

--- a/Excel/Buff/BuffConfig.xlsx
+++ b/Excel/Buff/BuffConfig.xlsx
@@ -72,10 +72,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Buff持续时间 单位毫秒</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>辅助说明</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -206,6 +202,23 @@
   </si>
   <si>
     <t>测试Buff</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Buff持续时间 单位毫秒</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 为0则一直存在</t>
+    </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -278,7 +291,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -288,6 +301,9 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -596,7 +612,7 @@
   <dimension ref="C2:P6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -625,18 +641,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="3:16" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:16" ht="28.5" x14ac:dyDescent="0.3">
       <c r="C3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>3</v>
@@ -645,70 +661,70 @@
         <v>6</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>7</v>
+        <v>25</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>37</v>
       </c>
       <c r="K3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="M3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="4" t="s">
-        <v>13</v>
-      </c>
       <c r="N3" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P3" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="3:16" ht="14.25" x14ac:dyDescent="0.3">
       <c r="C4" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>5</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="3:16" ht="14.25" x14ac:dyDescent="0.3">
@@ -717,16 +733,16 @@
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>4</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I5" s="3" t="s">
         <v>2</v>
@@ -735,22 +751,22 @@
         <v>2</v>
       </c>
       <c r="K5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="L5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L5" s="4" t="s">
+      <c r="M5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="M5" s="4" t="s">
-        <v>18</v>
-      </c>
       <c r="N5" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O5" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P5" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="3:16" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
@@ -758,7 +774,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E6" s="1">
         <v>1</v>
